--- a/CoffeeStore/ExcelBill/BL00009.xlsx
+++ b/CoffeeStore/ExcelBill/BL00009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
   <si>
     <t/>
   </si>
@@ -35,13 +35,13 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>02/05/2022</t>
+    <t>05/05/2022</t>
   </si>
   <si>
     <t>Staff:</t>
   </si>
   <si>
-    <t>Thiều Việt Hoàng</t>
+    <t>Võ Văn Hùng</t>
   </si>
   <si>
     <t>Type:</t>
@@ -71,28 +71,31 @@
     <t>Pearl Black Tea</t>
   </si>
   <si>
+    <t xml:space="preserve"> - Size: M - Status: COLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Golden Pearl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Konjac Caramel Jelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Diamond Jelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Fruit Diamond Jelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Pudding</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>Carrot Juice</t>
+  </si>
+  <si>
     <t xml:space="preserve"> - Size: S - Status: COLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Golden Pearl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Konjac Caramel Jelly</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Diamond Jelly</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Fruit Diamond Jelly</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Pudding</t>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>Lemon Yogurt</t>
   </si>
   <si>
     <t>Total:</t>
@@ -749,10 +752,10 @@
         <v>18</v>
       </c>
       <c r="F13" t="n" s="7">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="G13" t="n" s="7">
-        <v>51000.0</v>
+        <v>228000.0</v>
       </c>
       <c r="I13" s="10"/>
     </row>
@@ -839,14 +842,14 @@
         <v>1.0</v>
       </c>
       <c r="G20" t="n" s="7">
-        <v>47000.0</v>
+        <v>79000.0</v>
       </c>
       <c r="I20" s="10"/>
     </row>
     <row r="21">
       <c r="A21" s="13"/>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I21" s="10"/>
     </row>
@@ -856,10 +859,10 @@
         <v>20</v>
       </c>
       <c r="F22" t="n" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G22" t="n" s="8">
-        <v>6000.0</v>
+        <v>12000.0</v>
       </c>
       <c r="I22" s="10"/>
     </row>
@@ -869,10 +872,10 @@
         <v>21</v>
       </c>
       <c r="F23" t="n" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G23" t="n" s="8">
-        <v>8000.0</v>
+        <v>16000.0</v>
       </c>
       <c r="I23" s="10"/>
     </row>
@@ -882,10 +885,10 @@
         <v>22</v>
       </c>
       <c r="F24" t="n" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G24" t="n" s="8">
-        <v>6000.0</v>
+        <v>12000.0</v>
       </c>
       <c r="I24" s="10"/>
     </row>
@@ -895,10 +898,10 @@
         <v>23</v>
       </c>
       <c r="F25" t="n" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G25" t="n" s="8">
-        <v>6000.0</v>
+        <v>12000.0</v>
       </c>
       <c r="I25" s="10"/>
     </row>
@@ -908,10 +911,10 @@
         <v>24</v>
       </c>
       <c r="F26" t="n" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G26" t="n" s="8">
-        <v>6000.0</v>
+        <v>12000.0</v>
       </c>
       <c r="I26" s="10"/>
     </row>
@@ -922,30 +925,30 @@
     <row r="28">
       <c r="A28" s="13"/>
       <c r="F28" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H28" t="n" s="9">
-        <v>98000.0</v>
+        <v>307000.0</v>
       </c>
       <c r="I28" s="10"/>
     </row>
     <row r="29">
       <c r="A29" s="13"/>
       <c r="F29" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H29" t="n" s="9">
-        <v>100000.0</v>
+        <v>500000.0</v>
       </c>
       <c r="I29" s="10"/>
     </row>
     <row r="30">
       <c r="A30" s="13"/>
       <c r="F30" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H30" t="n" s="9">
-        <v>2000.0</v>
+        <v>193000.0</v>
       </c>
       <c r="I30" s="10"/>
     </row>
@@ -956,14 +959,14 @@
     <row r="32">
       <c r="A32" s="13"/>
       <c r="C32" t="s" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I32" s="10"/>
     </row>
     <row r="33">
       <c r="A33" s="13"/>
       <c r="C33" t="s" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I33" s="10"/>
     </row>
